--- a/Group 8 Requierments.xlsx
+++ b/Group 8 Requierments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\HK 242\Embedded System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huywa\OneDrive\Máy tính\HK 242\Embedded System\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F606E0B-C110-4426-93FE-7D72F382209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6CF33-44C0-4FC5-A302-968DBF2E20DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Group 8:</t>
   </si>
@@ -31,161 +31,185 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1. System Safety and Reliability</t>
   </si>
   <si>
-    <t>Hardware Component Requirements</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>1.1.</t>
+    <t>Requirement</t>
   </si>
   <si>
-    <t>Wireless Communication</t>
+    <t>Status</t>
   </si>
   <si>
-    <t>1.1.1.</t>
+    <t>done</t>
   </si>
   <si>
-    <t>The Master and Slave shall operate at 2.4GHz</t>
+    <t>2. Communication and Data Transmission</t>
   </si>
   <si>
-    <t>1.1.2.</t>
+    <t>3. Information Display</t>
   </si>
   <si>
-    <t>The Master and Slave shall operate in the range of 10 meters</t>
+    <t>4. Traffic Light Control</t>
   </si>
   <si>
-    <t>1.2.</t>
+    <t>5. Real-Time Synchronization</t>
   </si>
   <si>
-    <t>Power supply</t>
+    <t>The system must be powered stably using a 9V adapter regulated to 5VDC via ASM1117</t>
   </si>
   <si>
-    <t>1.2.1.</t>
+    <t>The display must be updated at least every 1 second</t>
   </si>
   <si>
-    <t>1.2.2.</t>
+    <t>The system must use a DS3231 module for real-time clock (RTC) functionality</t>
   </si>
   <si>
-    <t>1.3.</t>
+    <t>The DS3231 must communicate via I2C, sharing the bus with the LCD</t>
   </si>
   <si>
-    <t xml:space="preserve">Motion sensor </t>
+    <t>All connections must be properly placed and secured on the breadboard to ensure stable operation</t>
   </si>
   <si>
-    <t>1.3.1.</t>
+    <t>HC-12 module communicate with STM32 via UART interface</t>
   </si>
   <si>
-    <t>Sensor capable of detecting vehicles crossing the line at the red light</t>
+    <t xml:space="preserve">The communication speed must be at 9600 bps </t>
   </si>
   <si>
-    <t>1.3.2.</t>
+    <t>The system must maintain stable communication at distances under 50 meters in noisy environments</t>
   </si>
   <si>
-    <t>Create a signal to let the MCU know that there is a red line violation</t>
+    <t>The HC-12 module must operate at a transmit power of 20 dB (100 mW) to ensure sufficient communication range</t>
   </si>
   <si>
-    <t>2</t>
+    <t>The system must include a 16x2 I2C LCD to display real time</t>
   </si>
   <si>
-    <t>Software Requirements</t>
+    <t>The LCD must display: real time and mode status</t>
   </si>
   <si>
-    <t>2.1.1.</t>
+    <t>6. Operation Mode Switching</t>
   </si>
   <si>
-    <t>Operation mode</t>
+    <t>In Normal Mode, the Green light must stay on for 18 seconds, Yellow for 3 seconds, and Red for 20 seconds</t>
   </si>
   <si>
-    <t>2.1.1.1.</t>
+    <t>In Heavy Mode, the Green light must stay on for 45 seconds, Yellow for 5 seconds, and Red for 50 seconds</t>
   </si>
   <si>
-    <t>In Normal Mode, RED light will be on for 30 seconds, GREEN light on for 27 seconds, and YELLOW light on for 3 seconds</t>
+    <t>In Night Mode, the Yellow light blinks every 0,5 second</t>
   </si>
   <si>
-    <t>2.1.1.2.</t>
+    <t>Control Mode allows traffic light direction change</t>
   </si>
   <si>
-    <t>In Heavy_Traffic Mode, RED light will be on for 60 seconds, GREEN light on for 55 seconds, and YELLOW light on for 5 seconds. (2nd priority)</t>
+    <t>The Master must control Red, Yellow, and Green LEDs using GPIO as well as Slave</t>
   </si>
   <si>
-    <t>2.1.1.3.</t>
+    <t>The DS3231 update time every 1 second using interrupt</t>
   </si>
   <si>
-    <t>In Night Mode, RED and GREEN light will be off, and YELLOW light flashing. (3rd priority)</t>
+    <t>1 Master must use an HC-12 module to wirelessly transmit data to 1 Slave</t>
   </si>
   <si>
-    <t>2.1.1.4.</t>
+    <t>Master and Slave are assigned at channel 88</t>
   </si>
   <si>
-    <t>In Control Mode, The master and the opposite slave will automatically turn green, the remaining 2 slaves will turn red. Keep the state until the signal changes, then the red light will turn green and vice versa. (1st priority)</t>
+    <t>The system must support 5 operation modes controlled via 5 push buttons</t>
   </si>
   <si>
-    <t>2.1.2.</t>
+    <r>
+      <t xml:space="preserve">Button 1 switches to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normal Mode</t>
+    </r>
   </si>
   <si>
-    <t>Transmit and Receive function</t>
+    <r>
+      <t xml:space="preserve">Button 2 switches to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Heavy Mode</t>
+    </r>
   </si>
   <si>
-    <t>2.1.2.1.</t>
+    <r>
+      <t xml:space="preserve">Button 3 switches to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Light Mode</t>
+    </r>
   </si>
   <si>
-    <t>The transmit and receive function must be able to transmit and receive signals over the SPI protocol, using NRF24L01</t>
+    <r>
+      <t xml:space="preserve">Button 4 switches to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Control Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (manual operation)</t>
+    </r>
   </si>
   <si>
-    <t>2.1.3.</t>
-  </si>
-  <si>
-    <t>Display in LCD and Hex LED</t>
-  </si>
-  <si>
-    <t>2.1.3.1.</t>
-  </si>
-  <si>
-    <t>LCD will display whenever there is a violation signal.</t>
-  </si>
-  <si>
-    <t>2.1.3.2.</t>
-  </si>
-  <si>
-    <t>Hex LED will count down whenever the colour of light changes</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
-    <t>1.4.1.</t>
-  </si>
-  <si>
-    <t>Keypad</t>
-  </si>
-  <si>
-    <t>Use keypad to adjust time for heavy traffic mode</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCD is used to alert driver to slow down </t>
-  </si>
-  <si>
-    <t>The system is provided a suitable voltage</t>
-  </si>
-  <si>
-    <t>All components must work smoothly with maximum power</t>
+    <r>
+      <t xml:space="preserve">Button 5 is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually toggle traffic light states in Control Mode</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,39 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,21 +291,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +522,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1004"/>
+  <dimension ref="A1:C989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -523,11 +530,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="91.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="93.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,274 +543,400 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C34" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C35" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C40" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C41" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="C44" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
@@ -3628,52 +3762,8 @@
     <row r="989" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A989" s="3"/>
     </row>
-    <row r="990" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A990" s="3"/>
-    </row>
-    <row r="991" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A991" s="3"/>
-    </row>
-    <row r="992" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A992" s="3"/>
-    </row>
-    <row r="993" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A993" s="3"/>
-    </row>
-    <row r="994" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A994" s="3"/>
-    </row>
-    <row r="995" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A995" s="3"/>
-    </row>
-    <row r="996" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A996" s="3"/>
-    </row>
-    <row r="997" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A997" s="3"/>
-    </row>
-    <row r="998" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A998" s="3"/>
-    </row>
-    <row r="999" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A999" s="3"/>
-    </row>
-    <row r="1000" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1000" s="3"/>
-    </row>
-    <row r="1001" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1001" s="3"/>
-    </row>
-    <row r="1002" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1002" s="3"/>
-    </row>
-    <row r="1003" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1003" s="3"/>
-    </row>
-    <row r="1004" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1004" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>